--- a/game flow/Ligue_1_GameFlow.xlsx
+++ b/game flow/Ligue_1_GameFlow.xlsx
@@ -473,51 +473,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RC Lens</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.05668449197861</v>
+        <v>4.790490341753343</v>
       </c>
       <c r="C2" t="n">
-        <v>7.456171735241503</v>
+        <v>10.05987055016181</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5144346431435445</v>
+        <v>0.7806379971734303</v>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07494466111521028</v>
+        <v>0.04882364506193066</v>
       </c>
       <c r="G2" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>RC Lens</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.794348508634223</v>
+        <v>5.05668449197861</v>
       </c>
       <c r="C3" t="n">
-        <v>9.919463087248323</v>
+        <v>7.456171735241503</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7886926533598078</v>
+        <v>0.5144346431435445</v>
       </c>
       <c r="E3" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04867106247026035</v>
+        <v>0.07494466111521028</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.955290611028316</v>
+        <v>6.049226441631505</v>
       </c>
       <c r="C5" t="n">
-        <v>12.00230414746544</v>
+        <v>11.71895424836601</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6629313638100089</v>
+        <v>0.6540903540903541</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05128865979381443</v>
+        <v>0.05218113834648941</v>
       </c>
       <c r="G5" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.845170454545454</v>
+        <v>6.67248322147651</v>
       </c>
       <c r="C8" t="n">
-        <v>10.7</v>
+        <v>10.43594306049822</v>
       </c>
       <c r="D8" t="n">
-        <v>0.502539587690469</v>
+        <v>0.4993581514762516</v>
       </c>
       <c r="E8" t="n">
+        <v>21</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04277673545966229</v>
+      </c>
+      <c r="G8" t="n">
         <v>19</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.04098121288815341</v>
-      </c>
-      <c r="G8" t="n">
-        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -652,47 +652,47 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.732394366197183</v>
+        <v>6.726723095525998</v>
       </c>
       <c r="C9" t="n">
-        <v>5.990439770554493</v>
+        <v>6.019891500904159</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4055643879173291</v>
+        <v>0.4153869545385434</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08110024103218488</v>
+        <v>0.08081077476996933</v>
       </c>
       <c r="G9" t="n">
-        <v>-9</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.607194244604316</v>
+        <v>6.544242424242424</v>
       </c>
       <c r="C10" t="n">
-        <v>8.461215932914046</v>
+        <v>8.064631956912029</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3828875767048744</v>
+        <v>0.3580377159435579</v>
       </c>
       <c r="E10" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07785804380231624</v>
+        <v>0.06854049072687478</v>
       </c>
       <c r="G10" t="n">
-        <v>-9</v>
+        <v>-14</v>
       </c>
     </row>
     <row r="11">
@@ -702,47 +702,47 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.516826923076923</v>
+        <v>4.396590909090909</v>
       </c>
       <c r="C11" t="n">
-        <v>7.441233140655106</v>
+        <v>7.390109890109891</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5759876282862365</v>
+        <v>0.5751889848812095</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06942096365173288</v>
+        <v>0.0705264221481257</v>
       </c>
       <c r="G11" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.636479591836735</v>
+        <v>6.607194244604316</v>
       </c>
       <c r="C12" t="n">
-        <v>7.944971537001898</v>
+        <v>8.461215932914046</v>
       </c>
       <c r="D12" t="n">
-        <v>0.357593201754386</v>
+        <v>0.3828875767048744</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="n">
-        <v>0.06786062378167641</v>
+        <v>0.07785804380231624</v>
       </c>
       <c r="G12" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="13">
@@ -773,126 +773,126 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nice</t>
+          <t>Le Havre</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.432614555256064</v>
+        <v>4.909199522102748</v>
       </c>
       <c r="C14" t="n">
-        <v>8.312625250501002</v>
+        <v>8.03671706263499</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4513788098693759</v>
+        <v>0.4069129209316125</v>
       </c>
       <c r="E14" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.07071173145691545</v>
+        <v>0.09330323551542513</v>
       </c>
       <c r="G14" t="n">
-        <v>-6</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Paris FC</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.104874446085672</v>
+        <v>5.396662387676509</v>
       </c>
       <c r="C15" t="n">
-        <v>11.75900900900901</v>
+        <v>7.94589552238806</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5317109144542773</v>
+        <v>0.4510786360473208</v>
       </c>
       <c r="E15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07375441349548843</v>
+        <v>0.07235745248416138</v>
       </c>
       <c r="G15" t="n">
-        <v>-9</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>Paris FC</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.955696202531645</v>
+        <v>5.967651195499297</v>
       </c>
       <c r="C16" t="n">
-        <v>8.223502304147466</v>
+        <v>11.94143167028199</v>
       </c>
       <c r="D16" t="n">
-        <v>0.398972602739726</v>
+        <v>0.5210970464135021</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09438439230160822</v>
+        <v>0.07520420617782368</v>
       </c>
       <c r="G16" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Auxerre</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.768308921438082</v>
+        <v>5.901960784313726</v>
       </c>
       <c r="C17" t="n">
-        <v>7.452290076335878</v>
+        <v>6.142329020332717</v>
       </c>
       <c r="D17" t="n">
-        <v>0.363308812490617</v>
+        <v>0.4652948847993045</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09586776859504133</v>
+        <v>0.0901985111662531</v>
       </c>
       <c r="G17" t="n">
-        <v>-25</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.739904988123516</v>
+        <v>5.768308921438082</v>
       </c>
       <c r="C18" t="n">
-        <v>6.202702702702703</v>
+        <v>7.452290076335878</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4536600213057373</v>
+        <v>0.363308812490617</v>
       </c>
       <c r="E18" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0894702419882276</v>
+        <v>0.09586776859504133</v>
       </c>
       <c r="G18" t="n">
-        <v>-24</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="19">

--- a/game flow/Ligue_1_GameFlow.xlsx
+++ b/game flow/Ligue_1_GameFlow.xlsx
@@ -473,51 +473,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Paris Saint-Germain</t>
+          <t>RC Lens</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.790490341753343</v>
+        <v>5.148565573770492</v>
       </c>
       <c r="C2" t="n">
-        <v>10.05987055016181</v>
+        <v>7.560891938250429</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7806379971734303</v>
+        <v>0.5079507566042575</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04882364506193066</v>
+        <v>0.07543930519087053</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RC Lens</t>
+          <t>Paris Saint-Germain</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.05668449197861</v>
+        <v>4.765205091937765</v>
       </c>
       <c r="C3" t="n">
-        <v>7.456171735241503</v>
+        <v>10.1296875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5144346431435445</v>
+        <v>0.7806062961523513</v>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07494466111521028</v>
+        <v>0.04965387035871617</v>
       </c>
       <c r="G3" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.953703703703703</v>
+        <v>5.037974683544304</v>
       </c>
       <c r="C4" t="n">
-        <v>10.04051172707889</v>
+        <v>10.42061855670103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5520012128562766</v>
+        <v>0.5532834101382489</v>
       </c>
       <c r="E4" t="n">
         <v>19</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07292522596548891</v>
+        <v>0.07129057187017002</v>
       </c>
       <c r="G4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.049226441631505</v>
+        <v>5.951379763469119</v>
       </c>
       <c r="C5" t="n">
-        <v>11.71895424836601</v>
+        <v>11.47010309278351</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6540903540903541</v>
+        <v>0.6413673232908459</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05218113834648941</v>
+        <v>0.05295250320924262</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.669387755102041</v>
+        <v>5.567144719687093</v>
       </c>
       <c r="C6" t="n">
-        <v>8.116104868913858</v>
+        <v>7.942608695652174</v>
       </c>
       <c r="D6" t="n">
-        <v>0.578940142778693</v>
+        <v>0.5889714509190458</v>
       </c>
       <c r="E6" t="n">
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.06531017369727048</v>
+        <v>0.06502011413602769</v>
       </c>
       <c r="G6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.674540682414698</v>
+        <v>5.780856423173804</v>
       </c>
       <c r="C7" t="n">
-        <v>7.680221811460259</v>
+        <v>7.597173144876325</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5576248313090418</v>
+        <v>0.5409184197024115</v>
       </c>
       <c r="E7" t="n">
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06237176856791136</v>
+        <v>0.06348258706467662</v>
       </c>
       <c r="G7" t="n">
-        <v>-13</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="8">
@@ -627,122 +627,122 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.67248322147651</v>
+        <v>6.600512163892446</v>
       </c>
       <c r="C8" t="n">
-        <v>10.43594306049822</v>
+        <v>10.13810316139767</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4993581514762516</v>
+        <v>0.5050328814924171</v>
       </c>
       <c r="E8" t="n">
+        <v>25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.04264430368453921</v>
+      </c>
+      <c r="G8" t="n">
         <v>21</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.04277673545966229</v>
-      </c>
-      <c r="G8" t="n">
-        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>AS Monaco</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.726723095525998</v>
+        <v>4.357758620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>6.019891500904159</v>
+        <v>7.303664921465969</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4153869545385434</v>
+        <v>0.569284064665127</v>
       </c>
       <c r="E9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08081077476996933</v>
+        <v>0.07074922360248448</v>
       </c>
       <c r="G9" t="n">
-        <v>-10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>Lorient</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.544242424242424</v>
+        <v>6.602758620689655</v>
       </c>
       <c r="C10" t="n">
-        <v>8.064631956912029</v>
+        <v>8.860279441117765</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3580377159435579</v>
+        <v>0.3861617059084851</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06854049072687478</v>
+        <v>0.07594531083101902</v>
       </c>
       <c r="G10" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AS Monaco</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4.396590909090909</v>
+        <v>6.557471264367816</v>
       </c>
       <c r="C11" t="n">
-        <v>7.390109890109891</v>
+        <v>5.948453608247423</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5751889848812095</v>
+        <v>0.4412185354691076</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0705264221481257</v>
+        <v>0.07945375543140906</v>
       </c>
       <c r="G11" t="n">
-        <v>22</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Lorient</t>
+          <t>Angers</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.607194244604316</v>
+        <v>6.770128354725788</v>
       </c>
       <c r="C12" t="n">
-        <v>8.461215932914046</v>
+        <v>8.081034482758621</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3828875767048744</v>
+        <v>0.3662893081761006</v>
       </c>
       <c r="E12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07785804380231624</v>
+        <v>0.06842566236041164</v>
       </c>
       <c r="G12" t="n">
-        <v>-9</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="13">
@@ -752,22 +752,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.424799081515499</v>
+        <v>5.365800865800866</v>
       </c>
       <c r="C13" t="n">
-        <v>7.493775933609959</v>
+        <v>7.312992125984252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3869571490405425</v>
+        <v>0.3782454222465154</v>
       </c>
       <c r="E13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.108564988730278</v>
+        <v>0.1093220338983051</v>
       </c>
       <c r="G13" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="14">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.909199522102748</v>
+        <v>4.859106529209622</v>
       </c>
       <c r="C14" t="n">
-        <v>8.03671706263499</v>
+        <v>7.883673469387755</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4069129209316125</v>
+        <v>0.3919787590832868</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09330323551542513</v>
+        <v>0.09401502301914223</v>
       </c>
       <c r="G14" t="n">
-        <v>-4</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="15">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.396662387676509</v>
+        <v>5.636926889714994</v>
       </c>
       <c r="C15" t="n">
-        <v>7.94589552238806</v>
+        <v>8.111913357400722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4510786360473208</v>
+        <v>0.44975441391212</v>
       </c>
       <c r="E15" t="n">
         <v>22</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07235745248416138</v>
+        <v>0.07235032790353289</v>
       </c>
       <c r="G15" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="16">
@@ -827,22 +827,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.967651195499297</v>
+        <v>5.99331550802139</v>
       </c>
       <c r="C16" t="n">
-        <v>11.94143167028199</v>
+        <v>11.76876267748479</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5210970464135021</v>
+        <v>0.526393751683275</v>
       </c>
       <c r="E16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07520420617782368</v>
+        <v>0.07402793842868582</v>
       </c>
       <c r="G16" t="n">
-        <v>-10</v>
+        <v>-15</v>
       </c>
     </row>
     <row r="17">
@@ -852,19 +852,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.901960784313726</v>
+        <v>5.855737704918033</v>
       </c>
       <c r="C17" t="n">
-        <v>6.142329020332717</v>
+        <v>6.095406360424028</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4652948847993045</v>
+        <v>0.4609053497942387</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0901985111662531</v>
+        <v>0.08919852328212456</v>
       </c>
       <c r="G17" t="n">
         <v>-23</v>
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.768308921438082</v>
+        <v>5.702290076335878</v>
       </c>
       <c r="C18" t="n">
-        <v>7.452290076335878</v>
+        <v>7.324955116696588</v>
       </c>
       <c r="D18" t="n">
-        <v>0.363308812490617</v>
+        <v>0.3732084574996453</v>
       </c>
       <c r="E18" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09586776859504133</v>
+        <v>0.09391137264320884</v>
       </c>
       <c r="G18" t="n">
-        <v>-25</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="19">
@@ -902,19 +902,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.625348189415042</v>
+        <v>6.46031746031746</v>
       </c>
       <c r="C19" t="n">
-        <v>10.86938775510204</v>
+        <v>10.58365019011407</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4066190406764835</v>
+        <v>0.4179083885209713</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09291005291005291</v>
+        <v>0.09197240827751675</v>
       </c>
       <c r="G19" t="n">
         <v>-32</v>
